--- a/презентатьен/hashing_final.xlsx
+++ b/презентатьен/hashing_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA43DC3-760E-40BA-A7FD-C677D5304B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53D16FF-2ABF-46CD-8BEE-8EA26DD1B5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{76E5A9A9-99AC-47CD-8E61-9853B1B810EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{76E5A9A9-99AC-47CD-8E61-9853B1B810EF}"/>
   </bookViews>
   <sheets>
     <sheet name="белый" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="768">
   <si>
     <t>хэш</t>
   </si>
@@ -1863,9 +1863,6 @@
     <t>до 8</t>
   </si>
   <si>
-    <t>6-14</t>
-  </si>
-  <si>
     <t>9733188551955911559.</t>
   </si>
   <si>
@@ -2304,9 +2301,6 @@
     <t>1111111111011111100011110000111100101111100011111001111111111111</t>
   </si>
   <si>
-    <t>7-12</t>
-  </si>
-  <si>
     <t>1-5</t>
   </si>
   <si>
@@ -2341,6 +2335,12 @@
   </si>
   <si>
     <t>до 11</t>
+  </si>
+  <si>
+    <t>4-12</t>
+  </si>
+  <si>
+    <t>*некоторые данные из основных таблиц</t>
   </si>
 </sst>
 </file>
@@ -3031,18 +3031,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3059,6 +3047,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3378,7 +3378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E774349-D235-48FC-BBE0-E556741D1583}">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S91" sqref="S91"/>
     </sheetView>
   </sheetViews>
@@ -3474,7 +3474,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C3" s="48">
         <v>9.1152839999999995E-3</v>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="P3" s="50"/>
       <c r="Q3" s="58" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R3" s="59">
         <v>7.9164170000000002E-3</v>
@@ -3534,7 +3534,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C4" s="6">
         <v>1.5139731E-2</v>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="29" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="R4" s="30">
         <v>1.3972539000000001E-2</v>
@@ -3594,7 +3594,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C5" s="6">
         <v>5.1545590000000004E-3</v>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R5" s="30">
         <v>4.7639839999999998E-3</v>
@@ -3654,7 +3654,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C6" s="68">
         <v>2.5749197000000001E-2</v>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="P6" s="62"/>
       <c r="Q6" s="67" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R6" s="68">
         <v>2.4241714000000001E-2</v>
@@ -3714,7 +3714,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C7" s="48">
         <v>3.7489120000000001E-3</v>
@@ -3774,7 +3774,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C8" s="6">
         <v>2.886095E-3</v>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="29" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R8" s="30">
         <v>2.4903099999999999E-3</v>
@@ -3834,7 +3834,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C9" s="6">
         <v>3.8873390000000001E-3</v>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="29" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R9" s="30">
         <v>3.7750240000000001E-3</v>
@@ -3894,7 +3894,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C10" s="6">
         <v>3.5894500000000001E-3</v>
@@ -3954,7 +3954,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C11" s="6">
         <v>2.8884829999999998E-3</v>
@@ -3996,7 +3996,7 @@
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="29" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R11" s="30">
         <v>2.394429E-3</v>
@@ -4014,7 +4014,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C12" s="6">
         <v>3.3732050000000002E-3</v>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="29" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R12" s="30">
         <v>2.5088319999999999E-3</v>
@@ -4074,7 +4074,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C13" s="6">
         <v>3.6977170000000001E-3</v>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="29" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R13" s="30">
         <v>2.1877210000000001E-3</v>
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C14" s="6">
         <v>3.3787750000000001E-3</v>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="29" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R14" s="30">
         <v>2.6089149999999998E-3</v>
@@ -4194,7 +4194,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C15" s="6">
         <v>2.9707729999999999E-3</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="29" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R15" s="30">
         <v>2.772774E-3</v>
@@ -4254,7 +4254,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C16" s="6">
         <v>2.8347759999999998E-3</v>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="29" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R16" s="30">
         <v>2.312429E-3</v>
@@ -4314,7 +4314,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C17" s="6">
         <v>3.1050159999999999E-3</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="29" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R17" s="30">
         <v>2.387929E-3</v>
@@ -4374,7 +4374,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C18" s="6">
         <v>4.8062000000000001E-3</v>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="29" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R18" s="30">
         <v>2.401593E-3</v>
@@ -4434,7 +4434,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C19" s="6">
         <v>3.632896E-3</v>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="29" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R19" s="30">
         <v>2.4580259999999999E-3</v>
@@ -4494,7 +4494,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C20" s="6">
         <v>3.1027070000000001E-3</v>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="29" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R20" s="30">
         <v>2.420831E-3</v>
@@ -4554,7 +4554,7 @@
         <v>26</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C21" s="6">
         <v>3.331325E-3</v>
@@ -4614,7 +4614,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C22" s="6">
         <v>3.1475790000000002E-3</v>
@@ -4674,7 +4674,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C23" s="6">
         <v>3.805929E-3</v>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="29" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R23" s="30">
         <v>2.4593229999999998E-3</v>
@@ -4734,7 +4734,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C24" s="6">
         <v>3.3651369999999998E-3</v>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="29" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R24" s="30">
         <v>2.4694360000000002E-3</v>
@@ -4794,7 +4794,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C25" s="6">
         <v>4.7943769999999998E-3</v>
@@ -4854,7 +4854,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C26" s="6">
         <v>3.7598240000000002E-3</v>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="29" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R26" s="30">
         <v>2.7284459999999998E-3</v>
@@ -4914,7 +4914,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C27" s="8">
         <v>3.7988940000000001E-3</v>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="31" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R27" s="32">
         <v>3.6681769999999999E-3</v>
@@ -4974,7 +4974,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C28" s="48">
         <v>5.4807379999999998E-3</v>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="P28" s="50"/>
       <c r="Q28" s="58" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R28" s="59">
         <v>2.7554229999999999E-3</v>
@@ -5034,7 +5034,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C29" s="6">
         <v>3.8465790000000001E-3</v>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R29" s="30">
         <v>2.4228169999999999E-3</v>
@@ -5094,7 +5094,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C30" s="6">
         <v>3.441314E-3</v>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="29" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R30" s="30">
         <v>2.6325440000000001E-3</v>
@@ -5154,7 +5154,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C31" s="6">
         <v>5.2557940000000003E-3</v>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R31" s="30">
         <v>4.4936439999999998E-3</v>
@@ -5214,7 +5214,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C32" s="6">
         <v>3.9523780000000003E-3</v>
@@ -5274,7 +5274,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C33" s="6">
         <v>3.4073749999999998E-3</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="29" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R33" s="30">
         <v>2.4660649999999999E-3</v>
@@ -5334,7 +5334,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C34" s="6">
         <v>5.4058689999999998E-3</v>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R34" s="30">
         <v>3.624801E-3</v>
@@ -5394,7 +5394,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C35" s="6">
         <v>3.6966820000000002E-3</v>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="29" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="R35" s="30">
         <v>2.39544E-3</v>
@@ -5454,7 +5454,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C36" s="6">
         <v>2.9548819999999998E-3</v>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="29" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="R36" s="30">
         <v>2.3240320000000002E-3</v>
@@ -5514,7 +5514,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C37" s="6">
         <v>4.2015749999999999E-3</v>
@@ -5574,7 +5574,7 @@
         <v>43</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C38" s="6">
         <v>3.1284730000000001E-3</v>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="29" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R38" s="30">
         <v>2.908926E-3</v>
@@ -5634,7 +5634,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C39" s="6">
         <v>3.8045420000000002E-3</v>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="29" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="R39" s="30">
         <v>2.4761539999999999E-3</v>
@@ -5694,7 +5694,7 @@
         <v>45</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C40" s="6">
         <v>4.0423389999999998E-3</v>
@@ -5754,7 +5754,7 @@
         <v>46</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C41" s="6">
         <v>3.2596249999999999E-3</v>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R41" s="30">
         <v>2.7320539999999998E-3</v>
@@ -5814,7 +5814,7 @@
         <v>47</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C42" s="6">
         <v>2.969616E-3</v>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="29" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R42" s="30">
         <v>3.1011699999999999E-3</v>
@@ -5874,7 +5874,7 @@
         <v>48</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C43" s="6">
         <v>4.6430530000000003E-3</v>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="29" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="R43" s="30">
         <v>2.4371929999999998E-3</v>
@@ -5934,7 +5934,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C44" s="6">
         <v>4.4105489999999997E-3</v>
@@ -5994,7 +5994,7 @@
         <v>50</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C45" s="6">
         <v>3.3586979999999998E-3</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R45" s="30">
         <v>2.4836770000000001E-3</v>
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C46" s="6">
         <v>2.796532E-3</v>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="29" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="R46" s="30">
         <v>2.379487E-3</v>
@@ -6114,7 +6114,7 @@
         <v>52</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C47" s="6">
         <v>5.5408719999999996E-3</v>
@@ -6156,7 +6156,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="29" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="R47" s="30">
         <v>5.3830689999999999E-3</v>
@@ -6174,7 +6174,7 @@
         <v>53</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C48" s="8">
         <v>3.4009029999999998E-3</v>
@@ -6234,7 +6234,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C49" s="10">
         <v>4.6234700000000002E-3</v>
@@ -6276,7 +6276,7 @@
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="26" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R49" s="27">
         <v>3.854208E-3</v>
@@ -6294,7 +6294,7 @@
         <v>55</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C50" s="6">
         <v>5.8496529999999998E-3</v>
@@ -6336,7 +6336,7 @@
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R50" s="30">
         <v>3.9502199999999999E-3</v>
@@ -6354,7 +6354,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C51" s="6">
         <v>5.7677079999999999E-3</v>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R51" s="30">
         <v>5.1468679999999998E-3</v>
@@ -6414,7 +6414,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C52" s="6">
         <v>5.039221E-3</v>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R52" s="30">
         <v>4.3981819999999996E-3</v>
@@ -6474,7 +6474,7 @@
         <v>58</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C53" s="6">
         <v>6.7244410000000003E-3</v>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R53" s="30">
         <v>4.2498459999999998E-3</v>
@@ -6534,7 +6534,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C54" s="6">
         <v>4.9556080000000002E-3</v>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R54" s="30">
         <v>5.5682240000000001E-3</v>
@@ -6594,7 +6594,7 @@
         <v>60</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C55" s="6">
         <v>4.8858549999999997E-3</v>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R55" s="30">
         <v>4.6346920000000002E-3</v>
@@ -6654,7 +6654,7 @@
         <v>61</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C56" s="6">
         <v>7.1862499999999999E-3</v>
@@ -6696,7 +6696,7 @@
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R56" s="30">
         <v>4.4138490000000001E-3</v>
@@ -6714,7 +6714,7 @@
         <v>62</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C57" s="6">
         <v>5.7439040000000002E-3</v>
@@ -6774,7 +6774,7 @@
         <v>63</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C58" s="6">
         <v>5.5128540000000002E-3</v>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="29" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="R58" s="30">
         <v>4.6644089999999996E-3</v>
@@ -6834,7 +6834,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C59" s="6">
         <v>6.167461E-3</v>
@@ -6876,7 +6876,7 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="29" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R59" s="30">
         <v>4.3313300000000004E-3</v>
@@ -6894,7 +6894,7 @@
         <v>65</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C60" s="6">
         <v>5.5292700000000002E-3</v>
@@ -6954,7 +6954,7 @@
         <v>66</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C61" s="6">
         <v>5.3692159999999996E-3</v>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="29" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="R61" s="30">
         <v>5.680353E-3</v>
@@ -7014,7 +7014,7 @@
         <v>67</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C62" s="6">
         <v>5.9666980000000003E-3</v>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="29" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="R62" s="30">
         <v>4.1194650000000001E-3</v>
@@ -7074,7 +7074,7 @@
         <v>68</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C63" s="6">
         <v>6.0456030000000001E-3</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="29" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="R63" s="30">
         <v>3.9870089999999997E-3</v>
@@ -7134,7 +7134,7 @@
         <v>69</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C64" s="6">
         <v>5.266995E-3</v>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="29" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="R64" s="30">
         <v>5.1017399999999996E-3</v>
@@ -7194,7 +7194,7 @@
         <v>70</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C65" s="8">
         <v>4.9715439999999996E-3</v>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="P65" s="4"/>
       <c r="Q65" s="31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="R65" s="32">
         <v>4.5116899999999996E-3</v>
@@ -7254,7 +7254,7 @@
         <v>370</v>
       </c>
       <c r="B66" s="47" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C66" s="48">
         <v>6.3308979999999997E-3</v>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="P66" s="50"/>
       <c r="Q66" s="58" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R66" s="59">
         <v>5.5286709999999998E-3</v>
@@ -7310,7 +7310,7 @@
         <v>369</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C67" s="6">
         <v>5.4901029999999997E-3</v>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R67" s="30">
         <v>3.8337060000000001E-3</v>
@@ -7370,7 +7370,7 @@
         <v>368</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C68" s="6">
         <v>6.0767599999999996E-3</v>
@@ -7412,7 +7412,7 @@
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R68" s="30">
         <v>4.1173709999999999E-3</v>
@@ -7430,7 +7430,7 @@
         <v>367</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C69" s="6">
         <v>7.642299E-3</v>
@@ -7472,7 +7472,7 @@
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R69" s="30">
         <v>6.002795E-3</v>
@@ -7490,7 +7490,7 @@
         <v>366</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C70" s="6">
         <v>6.1761100000000003E-3</v>
@@ -7532,7 +7532,7 @@
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R70" s="30">
         <v>4.0889380000000003E-3</v>
@@ -7550,7 +7550,7 @@
         <v>365</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C71" s="6">
         <v>5.0714799999999997E-3</v>
@@ -7592,7 +7592,7 @@
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R71" s="30">
         <v>4.354063E-3</v>
@@ -7610,7 +7610,7 @@
         <v>364</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C72" s="6">
         <v>6.7316870000000001E-3</v>
@@ -7652,7 +7652,7 @@
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R72" s="30">
         <v>5.0648000000000004E-3</v>
@@ -7670,7 +7670,7 @@
         <v>363</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C73" s="6">
         <v>7.5619370000000003E-3</v>
@@ -7712,7 +7712,7 @@
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R73" s="30">
         <v>5.9072769999999998E-3</v>
@@ -7730,7 +7730,7 @@
         <v>362</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C74" s="6">
         <v>5.8705650000000003E-3</v>
@@ -7772,7 +7772,7 @@
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R74" s="30">
         <v>4.6762749999999997E-3</v>
@@ -7790,7 +7790,7 @@
         <v>361</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C75" s="6">
         <v>6.3366209999999997E-3</v>
@@ -7832,7 +7832,7 @@
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R75" s="30">
         <v>5.1397669999999999E-3</v>
@@ -7850,7 +7850,7 @@
         <v>360</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C76" s="6">
         <v>6.179655E-3</v>
@@ -7892,7 +7892,7 @@
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R76" s="30">
         <v>5.9747910000000001E-3</v>
@@ -7910,7 +7910,7 @@
         <v>359</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C77" s="6">
         <v>6.4177990000000001E-3</v>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R77" s="30">
         <v>4.2258900000000004E-3</v>
@@ -7966,7 +7966,7 @@
         <v>358</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C78" s="6">
         <v>5.3588070000000002E-3</v>
@@ -8005,7 +8005,7 @@
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R78" s="30">
         <v>4.7048530000000002E-3</v>
@@ -8022,7 +8022,7 @@
         <v>357</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C79" s="6">
         <v>6.8335649999999998E-3</v>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R79" s="30">
         <v>5.621132E-3</v>
@@ -8078,7 +8078,7 @@
         <v>356</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C80" s="6">
         <v>6.492159E-3</v>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R80" s="30">
         <v>4.6568130000000001E-3</v>
@@ -8134,7 +8134,7 @@
         <v>355</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C81" s="6">
         <v>5.5732869999999997E-3</v>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R81" s="30">
         <v>4.8581299999999996E-3</v>
@@ -8190,7 +8190,7 @@
         <v>354</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C82" s="6">
         <v>7.025061E-3</v>
@@ -8229,7 +8229,7 @@
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R82" s="30">
         <v>6.8663680000000003E-3</v>
@@ -8246,7 +8246,7 @@
         <v>353</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C83" s="6">
         <v>6.9943719999999996E-3</v>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R83" s="30">
         <v>6.5076070000000003E-3</v>
@@ -8302,7 +8302,7 @@
         <v>352</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C84" s="6">
         <v>7.4905470000000002E-3</v>
@@ -8344,7 +8344,7 @@
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R84" s="30">
         <v>7.4333009999999998E-3</v>
@@ -8362,7 +8362,7 @@
         <v>351</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C85" s="8">
         <v>1.0722358E-2</v>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="P85" s="4"/>
       <c r="Q85" s="31" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R85" s="32">
         <v>8.0216490000000005E-3</v>
@@ -8617,7 +8617,7 @@
         <v>136</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C3" s="48">
         <v>4.3490999999999998E-3</v>
@@ -8659,7 +8659,7 @@
       </c>
       <c r="P3" s="50"/>
       <c r="Q3" s="58" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R3" s="59">
         <v>3.5937429999999999E-3</v>
@@ -8677,7 +8677,7 @@
         <v>137</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C4" s="6">
         <v>3.3403999999999999E-3</v>
@@ -8719,7 +8719,7 @@
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R4" s="30">
         <v>2.7167839999999999E-3</v>
@@ -8737,7 +8737,7 @@
         <v>138</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C5" s="6">
         <v>5.7158E-3</v>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R5" s="30">
         <v>5.6503619999999999E-3</v>
@@ -8797,7 +8797,7 @@
         <v>139</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C6" s="68">
         <v>3.7540999999999998E-3</v>
@@ -8839,7 +8839,7 @@
       </c>
       <c r="P6" s="62"/>
       <c r="Q6" s="67" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R6" s="68">
         <v>2.9726990000000001E-3</v>
@@ -8857,7 +8857,7 @@
         <v>140</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C7" s="48">
         <v>3.4558000000000002E-3</v>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="P7" s="50"/>
       <c r="Q7" s="58" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="R7" s="59">
         <v>2.6557849999999999E-3</v>
@@ -8917,7 +8917,7 @@
         <v>141</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C8" s="6">
         <v>3.2659999999999998E-3</v>
@@ -8959,7 +8959,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R8" s="30">
         <v>2.6537000000000002E-3</v>
@@ -8977,7 +8977,7 @@
         <v>142</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C9" s="6">
         <v>2.9916999999999999E-3</v>
@@ -9019,7 +9019,7 @@
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R9" s="30">
         <v>2.5317529999999999E-3</v>
@@ -9037,7 +9037,7 @@
         <v>143</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C10" s="6">
         <v>3.0563000000000001E-3</v>
@@ -9079,7 +9079,7 @@
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="29" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="R10" s="30">
         <v>2.654989E-3</v>
@@ -9097,7 +9097,7 @@
         <v>144</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C11" s="6">
         <v>3.5590999999999999E-3</v>
@@ -9139,7 +9139,7 @@
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R11" s="30">
         <v>2.432526E-3</v>
@@ -9157,7 +9157,7 @@
         <v>145</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C12" s="6">
         <v>3.2174E-3</v>
@@ -9199,7 +9199,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R12" s="30">
         <v>2.692711E-3</v>
@@ -9217,7 +9217,7 @@
         <v>146</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C13" s="6">
         <v>2.8655E-3</v>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R13" s="30">
         <v>2.2006590000000002E-3</v>
@@ -9277,7 +9277,7 @@
         <v>147</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C14" s="6">
         <v>3.0370000000000002E-3</v>
@@ -9319,7 +9319,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R14" s="30">
         <v>2.062679E-3</v>
@@ -9337,7 +9337,7 @@
         <v>148</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C15" s="6">
         <v>3.0874000000000001E-3</v>
@@ -9379,7 +9379,7 @@
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R15" s="30">
         <v>2.2895390000000002E-3</v>
@@ -9397,7 +9397,7 @@
         <v>149</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C16" s="6">
         <v>4.3346000000000001E-3</v>
@@ -9439,7 +9439,7 @@
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R16" s="30">
         <v>2.2137939999999998E-3</v>
@@ -9457,7 +9457,7 @@
         <v>150</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C17" s="6">
         <v>3.8222999999999998E-3</v>
@@ -9499,7 +9499,7 @@
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R17" s="30">
         <v>2.4787860000000002E-3</v>
@@ -9517,7 +9517,7 @@
         <v>151</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C18" s="6">
         <v>2.9399999999999999E-3</v>
@@ -9559,7 +9559,7 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R18" s="30">
         <v>2.6085150000000001E-3</v>
@@ -9577,7 +9577,7 @@
         <v>152</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C19" s="6">
         <v>2.9007999999999998E-3</v>
@@ -9619,7 +9619,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R19" s="30">
         <v>2.6440930000000001E-3</v>
@@ -9637,7 +9637,7 @@
         <v>153</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C20" s="6">
         <v>4.0559000000000003E-3</v>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R20" s="30">
         <v>2.4558409999999998E-3</v>
@@ -9697,7 +9697,7 @@
         <v>154</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C21" s="6">
         <v>3.3086999999999999E-3</v>
@@ -9739,7 +9739,7 @@
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="29" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="R21" s="30">
         <v>2.5287510000000001E-3</v>
@@ -9757,7 +9757,7 @@
         <v>155</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C22" s="6">
         <v>2.9724999999999999E-3</v>
@@ -9799,7 +9799,7 @@
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="29" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="R22" s="30">
         <v>2.6998009999999999E-3</v>
@@ -9817,7 +9817,7 @@
         <v>156</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C23" s="6">
         <v>3.1334000000000002E-3</v>
@@ -9859,7 +9859,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R23" s="30">
         <v>2.790575E-3</v>
@@ -9877,7 +9877,7 @@
         <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C24" s="6">
         <v>3.1262999999999998E-3</v>
@@ -9919,7 +9919,7 @@
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R24" s="30">
         <v>2.5543689999999999E-3</v>
@@ -9937,7 +9937,7 @@
         <v>158</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C25" s="6">
         <v>4.9465000000000004E-3</v>
@@ -9979,7 +9979,7 @@
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="29" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="R25" s="30">
         <v>2.6452730000000001E-3</v>
@@ -9997,7 +9997,7 @@
         <v>159</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C26" s="6">
         <v>3.1987000000000001E-3</v>
@@ -10039,7 +10039,7 @@
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R26" s="30">
         <v>2.5468449999999998E-3</v>
@@ -10057,7 +10057,7 @@
         <v>160</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C27" s="8">
         <v>3.2109999999999999E-3</v>
@@ -10099,7 +10099,7 @@
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="31" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R27" s="32">
         <v>4.0638100000000002E-3</v>
@@ -10117,7 +10117,7 @@
         <v>161</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C28" s="48">
         <v>4.1755999999999998E-3</v>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="P28" s="50"/>
       <c r="Q28" s="58" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R28" s="59">
         <v>2.9749120000000001E-3</v>
@@ -10177,7 +10177,7 @@
         <v>162</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C29" s="6">
         <v>4.1067999999999999E-3</v>
@@ -10219,7 +10219,7 @@
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R29" s="30">
         <v>3.242881E-3</v>
@@ -10237,7 +10237,7 @@
         <v>163</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C30" s="6">
         <v>2.9199999999999999E-3</v>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R30" s="30">
         <v>2.6996059999999998E-3</v>
@@ -10297,7 +10297,7 @@
         <v>164</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C31" s="6">
         <v>4.2651E-3</v>
@@ -10339,7 +10339,7 @@
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R31" s="30">
         <v>2.9251809999999998E-3</v>
@@ -10357,7 +10357,7 @@
         <v>165</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C32" s="6">
         <v>3.3151999999999999E-3</v>
@@ -10399,7 +10399,7 @@
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="29" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="R32" s="30">
         <v>2.6879930000000001E-3</v>
@@ -10417,7 +10417,7 @@
         <v>166</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C33" s="6">
         <v>4.1425999999999998E-3</v>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R33" s="30">
         <v>2.7085880000000001E-3</v>
@@ -10477,7 +10477,7 @@
         <v>167</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C34" s="6">
         <v>5.2475000000000004E-3</v>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R34" s="30">
         <v>3.7678009999999999E-3</v>
@@ -10537,7 +10537,7 @@
         <v>168</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C35" s="6">
         <v>3.8874000000000001E-3</v>
@@ -10579,7 +10579,7 @@
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="29" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R35" s="30">
         <v>2.5730200000000001E-3</v>
@@ -10597,7 +10597,7 @@
         <v>169</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C36" s="6">
         <v>3.4215000000000001E-3</v>
@@ -10657,7 +10657,7 @@
         <v>170</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C37" s="6">
         <v>5.7193000000000001E-3</v>
@@ -10699,7 +10699,7 @@
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" s="29" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="R37" s="30">
         <v>3.8940810000000002E-3</v>
@@ -10717,7 +10717,7 @@
         <v>171</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C38" s="6">
         <v>3.6091999999999999E-3</v>
@@ -10759,7 +10759,7 @@
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R38" s="30">
         <v>2.9210939999999999E-3</v>
@@ -10777,7 +10777,7 @@
         <v>172</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C39" s="6">
         <v>4.3162000000000001E-3</v>
@@ -10837,7 +10837,7 @@
         <v>173</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C40" s="6">
         <v>4.2947000000000003E-3</v>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="29" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="R40" s="30">
         <v>3.4590060000000001E-3</v>
@@ -10897,7 +10897,7 @@
         <v>174</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C41" s="6">
         <v>3.7041999999999999E-3</v>
@@ -10939,7 +10939,7 @@
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="29" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="R41" s="30">
         <v>2.6145220000000002E-3</v>
@@ -10957,7 +10957,7 @@
         <v>175</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C42" s="6">
         <v>3.8793E-3</v>
@@ -10999,7 +10999,7 @@
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R42" s="30">
         <v>2.4218899999999999E-3</v>
@@ -11017,7 +11017,7 @@
         <v>176</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C43" s="6">
         <v>3.9236000000000002E-3</v>
@@ -11077,7 +11077,7 @@
         <v>177</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C44" s="6">
         <v>5.1076000000000003E-3</v>
@@ -11137,7 +11137,7 @@
         <v>178</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C45" s="6">
         <v>3.3532000000000002E-3</v>
@@ -11179,7 +11179,7 @@
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R45" s="30">
         <v>2.5914380000000002E-3</v>
@@ -11197,7 +11197,7 @@
         <v>179</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C46" s="6">
         <v>3.0593999999999999E-3</v>
@@ -11239,7 +11239,7 @@
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="29" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R46" s="30">
         <v>2.4625300000000001E-3</v>
@@ -11257,7 +11257,7 @@
         <v>180</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C47" s="6">
         <v>3.6332999999999999E-3</v>
@@ -11317,7 +11317,7 @@
         <v>181</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C48" s="8">
         <v>3.0726E-3</v>
@@ -11359,7 +11359,7 @@
       </c>
       <c r="P48" s="4"/>
       <c r="Q48" s="31" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="R48" s="32">
         <v>2.851475E-3</v>
@@ -11377,7 +11377,7 @@
         <v>182</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C49" s="10">
         <v>3.9711E-3</v>
@@ -11419,7 +11419,7 @@
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="26" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R49" s="27">
         <v>2.8759699999999998E-3</v>
@@ -11437,7 +11437,7 @@
         <v>183</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C50" s="6">
         <v>3.2934000000000001E-3</v>
@@ -11479,7 +11479,7 @@
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R50" s="30">
         <v>2.8235119999999998E-3</v>
@@ -11497,7 +11497,7 @@
         <v>184</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C51" s="6">
         <v>3.3319999999999999E-3</v>
@@ -11539,7 +11539,7 @@
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R51" s="30">
         <v>4.0142750000000003E-3</v>
@@ -11557,7 +11557,7 @@
         <v>185</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C52" s="6">
         <v>3.3243999999999999E-3</v>
@@ -11599,7 +11599,7 @@
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R52" s="30">
         <v>2.7530279999999998E-3</v>
@@ -11617,7 +11617,7 @@
         <v>186</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C53" s="6">
         <v>4.7593999999999996E-3</v>
@@ -11659,7 +11659,7 @@
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R53" s="30">
         <v>2.7038399999999999E-3</v>
@@ -11677,7 +11677,7 @@
         <v>187</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C54" s="6">
         <v>3.7320000000000001E-3</v>
@@ -11719,7 +11719,7 @@
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R54" s="30">
         <v>3.9398819999999996E-3</v>
@@ -11737,7 +11737,7 @@
         <v>188</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C55" s="6">
         <v>3.1500999999999999E-3</v>
@@ -11779,7 +11779,7 @@
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R55" s="30">
         <v>3.07391E-3</v>
@@ -11797,7 +11797,7 @@
         <v>189</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C56" s="6">
         <v>4.1730999999999999E-3</v>
@@ -11839,7 +11839,7 @@
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R56" s="30">
         <v>2.7657850000000002E-3</v>
@@ -11857,7 +11857,7 @@
         <v>190</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C57" s="6">
         <v>4.2100000000000002E-3</v>
@@ -11899,7 +11899,7 @@
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R57" s="30">
         <v>3.7639930000000002E-3</v>
@@ -11917,7 +11917,7 @@
         <v>191</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C58" s="6">
         <v>3.4594999999999999E-3</v>
@@ -11959,7 +11959,7 @@
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R58" s="30">
         <v>2.9835830000000002E-3</v>
@@ -11977,7 +11977,7 @@
         <v>192</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C59" s="6">
         <v>4.7231E-3</v>
@@ -12019,7 +12019,7 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R59" s="30">
         <v>2.903451E-3</v>
@@ -12037,7 +12037,7 @@
         <v>193</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C60" s="6">
         <v>3.4559E-3</v>
@@ -12079,7 +12079,7 @@
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R60" s="30">
         <v>4.0173739999999998E-3</v>
@@ -12097,7 +12097,7 @@
         <v>194</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C61" s="6">
         <v>5.3439999999999998E-3</v>
@@ -12139,7 +12139,7 @@
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="29" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R61" s="30">
         <v>2.860984E-3</v>
@@ -12157,7 +12157,7 @@
         <v>195</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C62" s="6">
         <v>3.6476E-3</v>
@@ -12199,7 +12199,7 @@
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R62" s="30">
         <v>2.8301649999999999E-3</v>
@@ -12217,7 +12217,7 @@
         <v>196</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C63" s="6">
         <v>4.3442999999999997E-3</v>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R63" s="30">
         <v>2.720274E-3</v>
@@ -12277,7 +12277,7 @@
         <v>197</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C64" s="6">
         <v>3.6751000000000002E-3</v>
@@ -12319,7 +12319,7 @@
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R64" s="30">
         <v>4.4941299999999998E-3</v>
@@ -12337,7 +12337,7 @@
         <v>198</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C65" s="8">
         <v>4.6167999999999999E-3</v>
@@ -12379,7 +12379,7 @@
       </c>
       <c r="P65" s="4"/>
       <c r="Q65" s="31" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R65" s="32">
         <v>3.1131079999999998E-3</v>
@@ -12397,7 +12397,7 @@
         <v>390</v>
       </c>
       <c r="B66" s="47" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C66" s="48">
         <v>4.7184000000000002E-3</v>
@@ -12439,7 +12439,7 @@
       </c>
       <c r="P66" s="50"/>
       <c r="Q66" s="58" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R66" s="59">
         <v>4.403812E-3</v>
@@ -12457,7 +12457,7 @@
         <v>389</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C67" s="6">
         <v>3.3842E-3</v>
@@ -12499,7 +12499,7 @@
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R67" s="30">
         <v>2.7126910000000001E-3</v>
@@ -12517,7 +12517,7 @@
         <v>388</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C68" s="6">
         <v>3.8034000000000002E-3</v>
@@ -12559,7 +12559,7 @@
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R68" s="30">
         <v>2.9051530000000002E-3</v>
@@ -12577,7 +12577,7 @@
         <v>387</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C69" s="6">
         <v>5.8878999999999997E-3</v>
@@ -12619,7 +12619,7 @@
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R69" s="30">
         <v>3.1704839999999999E-3</v>
@@ -12637,7 +12637,7 @@
         <v>386</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C70" s="6">
         <v>3.9805999999999999E-3</v>
@@ -12679,7 +12679,7 @@
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R70" s="30">
         <v>4.3993260000000003E-3</v>
@@ -12697,7 +12697,7 @@
         <v>385</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C71" s="6">
         <v>3.1873000000000001E-3</v>
@@ -12739,7 +12739,7 @@
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R71" s="30">
         <v>3.0004229999999999E-3</v>
@@ -12757,7 +12757,7 @@
         <v>384</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C72" s="6">
         <v>4.3140000000000001E-3</v>
@@ -12799,7 +12799,7 @@
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R72" s="30">
         <v>3.1625630000000002E-3</v>
@@ -12817,7 +12817,7 @@
         <v>383</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C73" s="6">
         <v>4.6572999999999996E-3</v>
@@ -12859,7 +12859,7 @@
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R73" s="30">
         <v>3.9000749999999998E-3</v>
@@ -12877,7 +12877,7 @@
         <v>382</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C74" s="6">
         <v>3.3449999999999999E-3</v>
@@ -12919,7 +12919,7 @@
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R74" s="30">
         <v>3.1179929999999999E-3</v>
@@ -12937,7 +12937,7 @@
         <v>381</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C75" s="6">
         <v>3.82E-3</v>
@@ -12979,7 +12979,7 @@
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R75" s="30">
         <v>3.5117030000000001E-3</v>
@@ -12997,7 +12997,7 @@
         <v>380</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C76" s="6">
         <v>5.1466000000000003E-3</v>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R76" s="30">
         <v>4.2705959999999998E-3</v>
@@ -13057,7 +13057,7 @@
         <v>379</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C77" s="6">
         <v>3.4053E-3</v>
@@ -13099,7 +13099,7 @@
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R77" s="30">
         <v>3.0972619999999999E-3</v>
@@ -13117,7 +13117,7 @@
         <v>378</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C78" s="6">
         <v>3.5525999999999999E-3</v>
@@ -13159,7 +13159,7 @@
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R78" s="30">
         <v>3.3516449999999999E-3</v>
@@ -13177,7 +13177,7 @@
         <v>377</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C79" s="6">
         <v>4.8608000000000002E-3</v>
@@ -13219,7 +13219,7 @@
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R79" s="30">
         <v>4.8507339999999998E-3</v>
@@ -13237,7 +13237,7 @@
         <v>376</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C80" s="6">
         <v>4.3575000000000003E-3</v>
@@ -13279,7 +13279,7 @@
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R80" s="30">
         <v>3.2491579999999998E-3</v>
@@ -13297,7 +13297,7 @@
         <v>375</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C81" s="6">
         <v>4.0785999999999999E-3</v>
@@ -13339,7 +13339,7 @@
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R81" s="30">
         <v>3.4073879999999999E-3</v>
@@ -13357,7 +13357,7 @@
         <v>374</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C82" s="6">
         <v>6.2100999999999996E-3</v>
@@ -13399,7 +13399,7 @@
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R82" s="30">
         <v>4.4358569999999996E-3</v>
@@ -13417,7 +13417,7 @@
         <v>373</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C83" s="6">
         <v>5.5777999999999999E-3</v>
@@ -13459,7 +13459,7 @@
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R83" s="30">
         <v>6.404748E-3</v>
@@ -13477,7 +13477,7 @@
         <v>372</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C84" s="6">
         <v>4.1897999999999996E-3</v>
@@ -13519,7 +13519,7 @@
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" s="29" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R84" s="30">
         <v>4.2851319999999997E-3</v>
@@ -13537,7 +13537,7 @@
         <v>371</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C85" s="8">
         <v>6.5437999999999998E-3</v>
@@ -13579,7 +13579,7 @@
       </c>
       <c r="P85" s="4"/>
       <c r="Q85" s="31" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R85" s="32">
         <v>4.3796379999999999E-3</v>
@@ -13700,8 +13700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3BDE60-5151-4EED-ABCF-4BB228146034}">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S90" sqref="S90:S91"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13795,7 +13795,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C3" s="48">
         <v>6.5666479999999996E-3</v>
@@ -13809,7 +13809,7 @@
       </c>
       <c r="F3" s="50"/>
       <c r="G3" s="51" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H3" s="52">
         <v>9.1256640000000003E-3</v>
@@ -13855,7 +13855,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C4" s="6">
         <v>3.6669559999999999E-3</v>
@@ -13869,7 +13869,7 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="15" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H4" s="16">
         <v>6.3567729999999996E-3</v>
@@ -13915,7 +13915,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C5" s="6">
         <v>8.1425920000000006E-3</v>
@@ -13929,7 +13929,7 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="15" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="H5" s="16">
         <v>1.1822717999999999E-2</v>
@@ -13943,7 +13943,7 @@
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="22" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="M5" s="23">
         <v>1.7236999999999999E-2</v>
@@ -13975,7 +13975,7 @@
         <v>76</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C6" s="68">
         <v>4.9051989999999998E-3</v>
@@ -14035,7 +14035,7 @@
         <v>77</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C7" s="48">
         <v>3.2807800000000001E-3</v>
@@ -14095,7 +14095,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C8" s="6">
         <v>3.126228E-3</v>
@@ -14137,7 +14137,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="29" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="R8" s="30">
         <v>2.3718049999999998E-3</v>
@@ -14155,7 +14155,7 @@
         <v>79</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C9" s="6">
         <v>2.8923070000000002E-3</v>
@@ -14197,7 +14197,7 @@
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="29" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="R9" s="30">
         <v>2.4378820000000002E-3</v>
@@ -14215,7 +14215,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C10" s="6">
         <v>3.7309679999999999E-3</v>
@@ -14275,7 +14275,7 @@
         <v>81</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C11" s="6">
         <v>3.4366459999999998E-3</v>
@@ -14317,7 +14317,7 @@
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="29" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="R11" s="30">
         <v>2.5549739999999998E-3</v>
@@ -14335,7 +14335,7 @@
         <v>82</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C12" s="6">
         <v>3.1710409999999999E-3</v>
@@ -14377,7 +14377,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="29" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="R12" s="30">
         <v>2.534817E-3</v>
@@ -14395,7 +14395,7 @@
         <v>83</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C13" s="6">
         <v>3.0797559999999999E-3</v>
@@ -14437,7 +14437,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="29" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="R13" s="30">
         <v>2.1774659999999999E-3</v>
@@ -14455,7 +14455,7 @@
         <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C14" s="6">
         <v>3.1709680000000001E-3</v>
@@ -14497,7 +14497,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="29" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="R14" s="30">
         <v>2.2630879999999999E-3</v>
@@ -14515,7 +14515,7 @@
         <v>85</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C15" s="6">
         <v>3.4832309999999998E-3</v>
@@ -14557,7 +14557,7 @@
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="29" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="R15" s="30">
         <v>2.662256E-3</v>
@@ -14575,7 +14575,7 @@
         <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C16" s="6">
         <v>3.1958170000000001E-3</v>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="29" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="R16" s="30">
         <v>2.3422740000000001E-3</v>
@@ -14635,7 +14635,7 @@
         <v>87</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C17" s="6">
         <v>3.1249860000000002E-3</v>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="29" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="R17" s="30">
         <v>2.4133800000000001E-3</v>
@@ -14695,7 +14695,7 @@
         <v>88</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C18" s="6">
         <v>3.0078320000000002E-3</v>
@@ -14737,7 +14737,7 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="29" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="R18" s="30">
         <v>2.673309E-3</v>
@@ -14755,7 +14755,7 @@
         <v>89</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C19" s="6">
         <v>3.3522439999999999E-3</v>
@@ -14797,7 +14797,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="29" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="R19" s="30">
         <v>2.4326410000000001E-3</v>
@@ -14815,7 +14815,7 @@
         <v>90</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C20" s="6">
         <v>4.2352020000000004E-3</v>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="29" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="R20" s="30">
         <v>2.4315000000000001E-3</v>
@@ -14875,7 +14875,7 @@
         <v>91</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C21" s="6">
         <v>3.0113399999999999E-3</v>
@@ -14935,7 +14935,7 @@
         <v>92</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C22" s="6">
         <v>3.0163709999999999E-3</v>
@@ -14995,7 +14995,7 @@
         <v>93</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C23" s="6">
         <v>3.3425759999999999E-3</v>
@@ -15037,7 +15037,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="29" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="R23" s="30">
         <v>2.5676779999999999E-3</v>
@@ -15055,7 +15055,7 @@
         <v>94</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C24" s="6">
         <v>3.1627360000000002E-3</v>
@@ -15097,7 +15097,7 @@
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="29" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="R24" s="30">
         <v>2.405829E-3</v>
@@ -15115,7 +15115,7 @@
         <v>95</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C25" s="6">
         <v>5.0842830000000002E-3</v>
@@ -15175,7 +15175,7 @@
         <v>96</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C26" s="6">
         <v>3.2934570000000001E-3</v>
@@ -15217,7 +15217,7 @@
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="29" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="R26" s="30">
         <v>2.7177109999999998E-3</v>
@@ -15235,7 +15235,7 @@
         <v>97</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C27" s="8">
         <v>3.3558479999999998E-3</v>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="31" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="R27" s="32">
         <v>4.4481449999999997E-3</v>
@@ -15295,7 +15295,7 @@
         <v>98</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C28" s="48">
         <v>4.7965239999999999E-3</v>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="P28" s="50"/>
       <c r="Q28" s="58" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="R28" s="59">
         <v>2.7826740000000002E-3</v>
@@ -15355,7 +15355,7 @@
         <v>99</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C29" s="6">
         <v>4.1723940000000003E-3</v>
@@ -15397,7 +15397,7 @@
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="29" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="R29" s="30">
         <v>2.513918E-3</v>
@@ -15415,7 +15415,7 @@
         <v>100</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C30" s="6">
         <v>3.2958739999999999E-3</v>
@@ -15457,7 +15457,7 @@
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="29" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="R30" s="30">
         <v>2.5345810000000002E-3</v>
@@ -15475,7 +15475,7 @@
         <v>101</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C31" s="6">
         <v>4.6539040000000004E-3</v>
@@ -15517,7 +15517,7 @@
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="29" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="R31" s="30">
         <v>4.0336310000000002E-3</v>
@@ -15535,7 +15535,7 @@
         <v>102</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C32" s="6">
         <v>3.8957620000000001E-3</v>
@@ -15595,7 +15595,7 @@
         <v>103</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C33" s="6">
         <v>3.8750880000000001E-3</v>
@@ -15637,7 +15637,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="29" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="R33" s="30">
         <v>2.5511050000000001E-3</v>
@@ -15655,7 +15655,7 @@
         <v>104</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C34" s="6">
         <v>4.474151E-3</v>
@@ -15697,7 +15697,7 @@
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="29" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="R34" s="30">
         <v>3.2846189999999999E-3</v>
@@ -15715,7 +15715,7 @@
         <v>105</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C35" s="6">
         <v>2.9590020000000001E-3</v>
@@ -15757,7 +15757,7 @@
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="29" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="R35" s="30">
         <v>2.5056800000000001E-3</v>
@@ -15775,7 +15775,7 @@
         <v>106</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C36" s="6">
         <v>3.0961199999999999E-3</v>
@@ -15817,7 +15817,7 @@
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="29" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="R36" s="30">
         <v>2.5459419999999998E-3</v>
@@ -15835,7 +15835,7 @@
         <v>107</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C37" s="6">
         <v>5.4314200000000002E-3</v>
@@ -15895,7 +15895,7 @@
         <v>108</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C38" s="6">
         <v>3.8910680000000001E-3</v>
@@ -15937,7 +15937,7 @@
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" s="29" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="R38" s="30">
         <v>2.7784620000000002E-3</v>
@@ -15955,7 +15955,7 @@
         <v>109</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C39" s="6">
         <v>3.0063059999999998E-3</v>
@@ -15997,7 +15997,7 @@
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" s="29" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="R39" s="30">
         <v>2.5149320000000001E-3</v>
@@ -16015,7 +16015,7 @@
         <v>110</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C40" s="6">
         <v>4.0147350000000002E-3</v>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" s="29" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="R40" s="30">
         <v>3.2543429999999998E-3</v>
@@ -16075,7 +16075,7 @@
         <v>111</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C41" s="6">
         <v>4.8796559999999996E-3</v>
@@ -16117,7 +16117,7 @@
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="29" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="R41" s="30">
         <v>2.5698819999999999E-3</v>
@@ -16135,7 +16135,7 @@
         <v>112</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C42" s="6">
         <v>3.3205299999999999E-3</v>
@@ -16177,7 +16177,7 @@
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" s="29" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="R42" s="30">
         <v>2.4404330000000001E-3</v>
@@ -16195,7 +16195,7 @@
         <v>113</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C43" s="6">
         <v>3.7991269999999998E-3</v>
@@ -16237,7 +16237,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" s="29" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="R43" s="30">
         <v>2.5516319999999999E-3</v>
@@ -16255,7 +16255,7 @@
         <v>114</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C44" s="6">
         <v>4.8179249999999998E-3</v>
@@ -16315,7 +16315,7 @@
         <v>115</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C45" s="6">
         <v>3.4484089999999999E-3</v>
@@ -16357,7 +16357,7 @@
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" s="29" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="R45" s="30">
         <v>2.5426189999999999E-3</v>
@@ -16375,7 +16375,7 @@
         <v>116</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C46" s="6">
         <v>3.0888310000000002E-3</v>
@@ -16417,7 +16417,7 @@
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" s="29" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="R46" s="30">
         <v>2.43042E-3</v>
@@ -16435,7 +16435,7 @@
         <v>117</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C47" s="6">
         <v>4.2451219999999996E-3</v>
@@ -16477,7 +16477,7 @@
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" s="29" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="R47" s="30">
         <v>3.1231700000000002E-3</v>
@@ -16495,7 +16495,7 @@
         <v>118</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C48" s="8">
         <v>3.0953539999999998E-3</v>
@@ -16555,7 +16555,7 @@
         <v>119</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C49" s="10">
         <v>4.4025230000000002E-3</v>
@@ -16615,7 +16615,7 @@
         <v>120</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C50" s="6">
         <v>3.6541619999999999E-3</v>
@@ -16675,7 +16675,7 @@
         <v>121</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C51" s="6">
         <v>3.7710539999999998E-3</v>
@@ -16735,7 +16735,7 @@
         <v>122</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C52" s="6">
         <v>4.5016780000000003E-3</v>
@@ -16795,7 +16795,7 @@
         <v>123</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C53" s="6">
         <v>4.5173790000000002E-3</v>
@@ -16855,7 +16855,7 @@
         <v>124</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C54" s="6">
         <v>3.8920700000000001E-3</v>
@@ -16915,7 +16915,7 @@
         <v>125</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C55" s="6">
         <v>3.5745159999999998E-3</v>
@@ -16975,7 +16975,7 @@
         <v>126</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C56" s="6">
         <v>5.554369E-3</v>
@@ -17035,7 +17035,7 @@
         <v>127</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C57" s="6">
         <v>3.5179529999999999E-3</v>
@@ -17077,7 +17077,7 @@
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" s="29" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="R57" s="30">
         <v>3.9435759999999999E-3</v>
@@ -17095,7 +17095,7 @@
         <v>128</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C58" s="6">
         <v>3.4455559999999998E-3</v>
@@ -17137,7 +17137,7 @@
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" s="29" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="R58" s="30">
         <v>3.4538640000000001E-3</v>
@@ -17155,7 +17155,7 @@
         <v>129</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C59" s="6">
         <v>5.1714999999999999E-3</v>
@@ -17197,7 +17197,7 @@
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="29" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R59" s="30">
         <v>3.106288E-3</v>
@@ -17215,7 +17215,7 @@
         <v>130</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C60" s="6">
         <v>4.7250130000000001E-3</v>
@@ -17257,7 +17257,7 @@
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="29" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R60" s="30">
         <v>3.0213739999999998E-3</v>
@@ -17275,7 +17275,7 @@
         <v>131</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C61" s="6">
         <v>5.1078729999999998E-3</v>
@@ -17317,7 +17317,7 @@
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" s="29" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R61" s="30">
         <v>4.3757539999999999E-3</v>
@@ -17335,7 +17335,7 @@
         <v>132</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C62" s="6">
         <v>3.779517E-3</v>
@@ -17377,7 +17377,7 @@
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" s="29" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R62" s="30">
         <v>3.1451930000000001E-3</v>
@@ -17395,7 +17395,7 @@
         <v>133</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C63" s="6">
         <v>5.2297159999999997E-3</v>
@@ -17437,7 +17437,7 @@
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" s="29" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R63" s="30">
         <v>3.0965530000000002E-3</v>
@@ -17455,7 +17455,7 @@
         <v>134</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C64" s="6">
         <v>4.4708609999999996E-3</v>
@@ -17497,7 +17497,7 @@
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" s="29" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R64" s="30">
         <v>4.0677430000000004E-3</v>
@@ -17515,7 +17515,7 @@
         <v>135</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C65" s="8">
         <v>4.8570519999999997E-3</v>
@@ -17557,7 +17557,7 @@
       </c>
       <c r="P65" s="4"/>
       <c r="Q65" s="31" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R65" s="32">
         <v>3.434692E-3</v>
@@ -17575,7 +17575,7 @@
         <v>410</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C66" s="6">
         <v>6.050878E-3</v>
@@ -17617,7 +17617,7 @@
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="29" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="R66" s="30">
         <v>4.575473E-3</v>
@@ -17635,7 +17635,7 @@
         <v>409</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C67" s="6">
         <v>4.6726169999999996E-3</v>
@@ -17695,7 +17695,7 @@
         <v>408</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C68" s="6">
         <v>4.6221389999999999E-3</v>
@@ -17755,7 +17755,7 @@
         <v>407</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C69" s="6">
         <v>5.3426940000000003E-3</v>
@@ -17815,7 +17815,7 @@
         <v>406</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C70" s="6">
         <v>4.8104460000000003E-3</v>
@@ -17875,7 +17875,7 @@
         <v>405</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C71" s="6">
         <v>4.6114900000000002E-3</v>
@@ -17935,7 +17935,7 @@
         <v>404</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C72" s="6">
         <v>3.752422E-3</v>
@@ -17995,7 +17995,7 @@
         <v>403</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C73" s="6">
         <v>4.8486010000000001E-3</v>
@@ -18055,7 +18055,7 @@
         <v>402</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C74" s="6">
         <v>4.1761769999999997E-3</v>
@@ -18115,7 +18115,7 @@
         <v>401</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C75" s="6">
         <v>4.2263609999999997E-3</v>
@@ -18175,7 +18175,7 @@
         <v>400</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C76" s="6">
         <v>5.2301190000000001E-3</v>
@@ -18235,7 +18235,7 @@
         <v>399</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C77" s="6">
         <v>3.833216E-3</v>
@@ -18295,7 +18295,7 @@
         <v>398</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C78" s="6">
         <v>4.6812970000000001E-3</v>
@@ -18355,7 +18355,7 @@
         <v>397</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C79" s="6">
         <v>5.00337E-3</v>
@@ -18415,7 +18415,7 @@
         <v>396</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C80" s="6">
         <v>3.9134970000000002E-3</v>
@@ -18475,7 +18475,7 @@
         <v>395</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C81" s="6">
         <v>3.8005529999999999E-3</v>
@@ -18535,7 +18535,7 @@
         <v>394</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C82" s="6">
         <v>5.7700340000000003E-3</v>
@@ -18595,7 +18595,7 @@
         <v>393</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C83" s="6">
         <v>4.5293110000000003E-3</v>
@@ -18655,7 +18655,7 @@
         <v>392</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C84" s="6">
         <v>5.8109709999999998E-3</v>
@@ -18715,7 +18715,7 @@
         <v>391</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C85" s="8">
         <v>6.4393159999999996E-3</v>
@@ -18878,8 +18878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1CE1BD-D9BD-4893-9AA7-4EFD60ED99A8}">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q74" sqref="Q74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20575,7 +20575,7 @@
         <v>6</v>
       </c>
       <c r="T34" s="74">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -20625,7 +20625,7 @@
         <v>14</v>
       </c>
       <c r="T35" s="76">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -20675,7 +20675,7 @@
         <v>11</v>
       </c>
       <c r="T36" s="76">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -20725,7 +20725,7 @@
         <v>9</v>
       </c>
       <c r="T37" s="76">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -20775,7 +20775,7 @@
         <v>15</v>
       </c>
       <c r="T38" s="76">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -20825,7 +20825,7 @@
         <v>3</v>
       </c>
       <c r="T39" s="76">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -20875,7 +20875,7 @@
         <v>7</v>
       </c>
       <c r="T40" s="76">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -20925,7 +20925,7 @@
         <v>6</v>
       </c>
       <c r="T41" s="76">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -20975,7 +20975,7 @@
         <v>5</v>
       </c>
       <c r="T42" s="76">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -21025,7 +21025,7 @@
         <v>2</v>
       </c>
       <c r="T43" s="76">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -21075,7 +21075,7 @@
         <v>9</v>
       </c>
       <c r="T44" s="76">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -21125,7 +21125,7 @@
         <v>3</v>
       </c>
       <c r="T45" s="76">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -21175,7 +21175,7 @@
         <v>3</v>
       </c>
       <c r="T46" s="76">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -21225,7 +21225,7 @@
         <v>4</v>
       </c>
       <c r="T47" s="76">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -21275,7 +21275,7 @@
         <v>5</v>
       </c>
       <c r="T48" s="76">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -21375,7 +21375,7 @@
         <v>5</v>
       </c>
       <c r="T50" s="76">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -21425,7 +21425,7 @@
         <v>3</v>
       </c>
       <c r="T51" s="76">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -21475,7 +21475,7 @@
         <v>3</v>
       </c>
       <c r="T52" s="76">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -21525,7 +21525,7 @@
         <v>1</v>
       </c>
       <c r="T53" s="76">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -21675,7 +21675,7 @@
         <v>13</v>
       </c>
       <c r="T56" s="76">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -21725,7 +21725,7 @@
         <v>7</v>
       </c>
       <c r="T57" s="76">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -21775,7 +21775,7 @@
         <v>3</v>
       </c>
       <c r="T58" s="76">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -21825,7 +21825,7 @@
         <v>10</v>
       </c>
       <c r="T59" s="76">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -21875,7 +21875,7 @@
         <v>12</v>
       </c>
       <c r="T60" s="76">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -21925,7 +21925,7 @@
         <v>9</v>
       </c>
       <c r="T61" s="76">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -21975,7 +21975,7 @@
         <v>9</v>
       </c>
       <c r="T62" s="76">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22025,7 +22025,7 @@
         <v>5</v>
       </c>
       <c r="T63" s="79">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22073,10 +22073,10 @@
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="112" t="s">
+      <c r="A65" s="120" t="s">
         <v>261</v>
       </c>
-      <c r="B65" s="113"/>
+      <c r="B65" s="121"/>
       <c r="C65" s="57">
         <f>MIN(C34:C63)</f>
         <v>9</v>
@@ -22093,10 +22093,10 @@
         <f>MIN(F34:F63)</f>
         <v>6</v>
       </c>
-      <c r="H65" s="112" t="s">
+      <c r="H65" s="120" t="s">
         <v>261</v>
       </c>
-      <c r="I65" s="113"/>
+      <c r="I65" s="121"/>
       <c r="J65" s="57">
         <f>MIN(J34:J63)</f>
         <v>9</v>
@@ -22113,10 +22113,10 @@
         <f>MIN(M34:M63)</f>
         <v>5</v>
       </c>
-      <c r="O65" s="112" t="s">
+      <c r="O65" s="120" t="s">
         <v>261</v>
       </c>
-      <c r="P65" s="113"/>
+      <c r="P65" s="121"/>
       <c r="Q65" s="57">
         <f>MIN(Q34:Q63)</f>
         <v>8</v>
@@ -22131,14 +22131,14 @@
       </c>
       <c r="T65" s="57">
         <f>MIN(T34:T63)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="114" t="s">
+      <c r="A66" s="118" t="s">
         <v>262</v>
       </c>
-      <c r="B66" s="115"/>
+      <c r="B66" s="119"/>
       <c r="C66" s="71">
         <f>13</f>
         <v>13</v>
@@ -22154,10 +22154,10 @@
         <f>MAX(F2:F33)</f>
         <v>4</v>
       </c>
-      <c r="H66" s="114" t="s">
+      <c r="H66" s="118" t="s">
         <v>262</v>
       </c>
-      <c r="I66" s="115"/>
+      <c r="I66" s="119"/>
       <c r="J66" s="71">
         <f>MAX(J2:J33)</f>
         <v>14</v>
@@ -22174,10 +22174,10 @@
         <f>MAX(M2:M33)</f>
         <v>3</v>
       </c>
-      <c r="O66" s="114" t="s">
+      <c r="O66" s="118" t="s">
         <v>262</v>
       </c>
-      <c r="P66" s="115"/>
+      <c r="P66" s="119"/>
       <c r="Q66" s="71">
         <f>MAX(Q2:Q33)</f>
         <v>11</v>
@@ -22196,12 +22196,12 @@
       </c>
     </row>
     <row r="67" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="120" t="s">
+      <c r="A67" s="116" t="s">
         <v>327</v>
       </c>
-      <c r="B67" s="121"/>
+      <c r="B67" s="117"/>
       <c r="C67" s="92" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D67" s="99" t="s">
         <v>328</v>
@@ -22210,48 +22210,48 @@
         <v>328</v>
       </c>
       <c r="F67" s="98" t="s">
-        <v>608</v>
-      </c>
-      <c r="H67" s="120" t="s">
+        <v>759</v>
+      </c>
+      <c r="H67" s="116" t="s">
         <v>327</v>
       </c>
-      <c r="I67" s="121"/>
+      <c r="I67" s="117"/>
       <c r="J67" s="92" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="K67" s="92" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="L67" s="4" t="s">
         <v>328</v>
       </c>
       <c r="M67" s="82" t="s">
-        <v>758</v>
-      </c>
-      <c r="O67" s="120" t="s">
+        <v>756</v>
+      </c>
+      <c r="O67" s="116" t="s">
         <v>327</v>
       </c>
-      <c r="P67" s="121"/>
+      <c r="P67" s="117"/>
       <c r="Q67" s="92" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="R67" s="4" t="s">
         <v>607</v>
       </c>
       <c r="S67" s="92" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="T67" s="98" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G70" s="80"/>
-      <c r="H70" s="116" t="s">
+      <c r="H70" s="112" t="s">
         <v>329</v>
       </c>
-      <c r="I70" s="117"/>
+      <c r="I70" s="113"/>
       <c r="J70" s="84" t="s">
         <v>4</v>
       </c>
@@ -22266,10 +22266,10 @@
       </c>
     </row>
     <row r="71" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H71" s="118"/>
-      <c r="I71" s="119"/>
+      <c r="H71" s="114"/>
+      <c r="I71" s="115"/>
       <c r="J71" s="93" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="K71" s="93" t="s">
         <v>607</v>
@@ -22278,21 +22278,24 @@
         <v>328</v>
       </c>
       <c r="M71" s="94" t="s">
-        <v>761</v>
+        <v>756</v>
+      </c>
+      <c r="N71" t="s">
+        <v>767</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="O66:P66"/>
     <mergeCell ref="H70:I71"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="H67:I67"/>
     <mergeCell ref="O67:P67"/>
     <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="O66:P66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
